--- a/xlsx/尤里卡 (词语)_intext.xlsx
+++ b/xlsx/尤里卡 (词语)_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E7%95%B0%E4%B9%8B%E5%9F%8E</t>
   </si>
   <si>
-    <t>靈異之城</t>
+    <t>灵异之城</t>
   </si>
   <si>
     <t>政策_政策_加州_尤里卡 (词语)</t>
